--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -100,16 +100,16 @@
     <t>safe</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>safety</t>
@@ -1214,25 +1214,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.691304347826087</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L18">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1240,25 +1240,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6904761904761905</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1266,13 +1266,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6888888888888889</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L20">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>0.9399999999999999</v>
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1292,25 +1292,25 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6739130434782609</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1344,25 +1344,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6128048780487805</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L23">
         <v>201</v>
       </c>
       <c r="M23">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="10:17">
